--- a/Data.xlsx
+++ b/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B26B34-F672-4CE8-A8E0-F9C77E0EAF18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD40AF-3CDB-4EDB-86F6-8F40C9C117D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SearchInput</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>Plasma</t>
+  </si>
+  <si>
+    <t>alexa bluetooth</t>
+  </si>
+  <si>
+    <t>Itemtext</t>
+  </si>
+  <si>
+    <t>mhgjg</t>
+  </si>
+  <si>
+    <t>jhfhj</t>
+  </si>
+  <si>
+    <t>jhgjh</t>
+  </si>
+  <si>
+    <t>gtiuyio</t>
+  </si>
+  <si>
+    <t>jhgtuiyoi</t>
   </si>
 </sst>
 </file>
@@ -380,37 +401,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
